--- a/public/demo_files/Demo_Insurance.xlsx
+++ b/public/demo_files/Demo_Insurance.xlsx
@@ -87,73 +87,172 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="L2" sqref="A2:L2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0" tabSelected="1">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" style="1" width="9.142307692307693"/>
-    <col min="3" max="3" style="1" width="10.999338942307693" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="1" style="1" width="25.427043269230772" customWidth="1"/>
+    <col min="2" max="2" style="1" width="21.141586538461542" customWidth="1"/>
+    <col min="3" max="3" style="1" width="27.99831730769231" customWidth="1"/>
+    <col min="4" max="4" style="1" width="40.140444711538464" customWidth="1"/>
+    <col min="5" max="5" style="1" width="20.855889423076924" customWidth="1"/>
+    <col min="6" max="6" style="1" width="26.85552884615385" customWidth="1"/>
+    <col min="7" max="7" style="1" width="30.56959134615385" customWidth="1"/>
+    <col min="8" max="8" style="1" width="30.283894230769235" customWidth="1"/>
+    <col min="9" max="9" style="1" width="30.56959134615385" customWidth="1"/>
+    <col min="10" max="10" style="1" width="31.283834134615386" customWidth="1"/>
+    <col min="11" max="11" style="1" width="20.427343750000002" customWidth="1"/>
+    <col min="12" max="12" style="1" width="31.71237980769231" customWidth="1"/>
+    <col min="13" max="13" style="1" width="16.998978365384616" customWidth="1"/>
+    <col min="14" max="14" style="1" width="21.71298076923077" customWidth="1"/>
+    <col min="15" max="15" style="1" width="17.99891826923077" customWidth="1"/>
+    <col min="16" max="16" style="1" width="20.284495192307695" customWidth="1"/>
+    <col min="17" max="17" style="1" width="26.28413461538462" customWidth="1"/>
+    <col min="18" max="18" style="1" width="17.42752403846154" customWidth="1"/>
+    <col min="19" max="19" style="1" width="16.141887019230772" customWidth="1"/>
+    <col min="20" max="20" style="1" width="15.856189903846156" customWidth="1"/>
+    <col min="21" max="21" style="1" width="22.284375" customWidth="1"/>
+    <col min="22" max="22" style="1" width="29.28395432692308" customWidth="1"/>
+    <col min="23" max="23" style="1" width="17.141826923076923" customWidth="1"/>
+    <col min="24" max="24" style="1" width="26.14128605769231" customWidth="1"/>
+    <col min="25" max="25" style="1" width="38.426262019230776" customWidth="1"/>
+    <col min="26" max="26" style="1" width="19.855949519230773" customWidth="1"/>
+    <col min="27" max="16384" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:26" ht="15">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Fleet Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Vehicle Number</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Agent Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>Insurance Company</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Insurance Type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Insured's Name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Insurance Policy Number</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Insurance Amount </t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Insurance Total Amount</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Insurance Prev Policy No</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>NCB Discount</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Hypothecation Agreement</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>Payment Mode</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Pay Number</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Pay Date</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Pay Bank</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Pay Branch</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Valid From</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Valid Till</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Engine No.</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Chassis No</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Manufacture Year</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Type Of Body</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Type Of Fuel</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Seating Capacity(including Driver)</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Cubic Capacity</t>
         </is>
       </c>
     </row>
